--- a/leetcode刷题/leetcode高频.xlsx
+++ b/leetcode刷题/leetcode高频.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13660"/>
+    <workbookView windowWidth="29100" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="65">
+  <si>
+    <t>题号</t>
+  </si>
   <si>
     <t>LeetCode Name</t>
   </si>
@@ -855,6 +858,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>贪心，左端点排序，维护</t>
     </r>
     <r>
@@ -890,6 +898,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>两个字符串的</t>
     </r>
     <r>
@@ -943,6 +956,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>后续遍历，返回</t>
     </r>
     <r>
@@ -967,6 +985,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>回溯，</t>
     </r>
     <r>
@@ -1018,6 +1041,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>双指针</t>
     </r>
     <r>
@@ -1071,6 +1099,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>递归简单，</t>
     </r>
     <r>
@@ -1146,6 +1179,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>两个栈，一个负责出，一个负责入</t>
     </r>
     <r>
@@ -1208,6 +1246,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>回溯，</t>
     </r>
     <r>
@@ -1285,6 +1328,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>二分，由于是向下取整，所以取</t>
     </r>
     <r>
@@ -1298,6 +1346,266 @@
   </si>
   <si>
     <t>模拟考虑情况</t>
+  </si>
+  <si>
+    <t>自定义一个单调递减的队列</t>
+  </si>
+  <si>
+    <r>
+      <t>双指针遍历，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结果另存，循环条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a,b,carry != 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>关键点，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数分割</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"." </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> "//.", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否则正则表达式中字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示全部</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dp[i] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> sc[i] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结尾的最长有效括号子串长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要考虑详细</t>
+    </r>
+  </si>
+  <si>
+    <t>多重背包组合问题，注意判断前一个凑不成的情况</t>
+  </si>
+  <si>
+    <r>
+      <t>数字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放在下标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处，注意交换要用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并防止越界</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>快慢指针，快指针先走</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>k</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>哈希表记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>win</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">req + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滑动窗口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> + validNum</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2529,23 +2837,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="42.5673076923077" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.6538461538462" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.60576923076923" style="2"/>
-    <col min="5" max="5" width="107.682692307692" style="2" customWidth="1"/>
-    <col min="6" max="26" width="8.60576923076923" style="2"/>
+    <col min="2" max="2" width="42.5673076923077" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6538461538462" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.60576923076923" style="2"/>
+    <col min="6" max="6" width="107.682692307692" style="2" customWidth="1"/>
+    <col min="7" max="27" width="8.60576923076923" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="17" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2554,1591 +2862,1678 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="17" spans="1:5">
-      <c r="A2" s="4" t="str">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="17" spans="2:6">
+      <c r="B2" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/longest-substring-without-repeating-characters","无重复字符的最长子串")</f>
         <v>无重复字符的最长子串</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
         <v>856</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="17" spans="1:5">
-      <c r="A3" s="4" t="str">
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="2:6">
+      <c r="B3" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/lru-cache","LRU缓存机制")</f>
         <v>LRU缓存机制</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
         <v>686</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="17" spans="1:5">
-      <c r="A4" s="4" t="str">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="2:6">
+      <c r="B4" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/reverse-linked-list","反转链表")</f>
         <v>反转链表</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4">
         <v>646</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="17" spans="1:5">
-      <c r="A5" s="4" t="str">
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="2:6">
+      <c r="B5" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/kth-largest-element-in-an-array","数组中的第K个最大元素")</f>
         <v>数组中的第K个最大元素</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
         <v>478</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="17" spans="1:5">
-      <c r="A6" s="4" t="str">
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="2:6">
+      <c r="B6" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/reverse-nodes-in-k-group","K 个一组翻转链表")</f>
         <v>K 个一组翻转链表</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
         <v>405</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" ht="17" spans="1:5">
-      <c r="A7" s="4" t="str">
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="17" spans="2:6">
+      <c r="B7" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/3sum","三数之和")</f>
         <v>三数之和</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
         <v>380</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="17" spans="1:5">
-      <c r="A8" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="17" spans="2:6">
+      <c r="B8" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/maximum-subarray","最大子数组和")</f>
         <v>最大子数组和</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
         <v>321</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="17" spans="1:5">
-      <c r="A9" s="4" t="str">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="17" spans="1:6">
+      <c r="A9">
+        <v>912</v>
+      </c>
+      <c r="B9" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/sort-an-array","手撕快速排序")</f>
         <v>手撕快速排序</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
         <v>293</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="17" spans="1:5">
-      <c r="A10" s="4" t="str">
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="17" spans="2:6">
+      <c r="B10" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/merge-two-sorted-lists","合并两个有序链表")</f>
         <v>合并两个有序链表</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
         <v>273</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="17" spans="1:5">
-      <c r="A11" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="17" spans="2:6">
+      <c r="B11" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/longest-palindromic-substring","最长回文子串")</f>
         <v>最长回文子串</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
         <v>272</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="17" spans="1:5">
-      <c r="A12" s="4" t="str">
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="17" spans="2:6">
+      <c r="B12" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/binary-tree-level-order-traversal","二叉树的层序遍历")</f>
         <v>二叉树的层序遍历</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
         <v>268</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="17" spans="1:5">
-      <c r="A13" s="4" t="str">
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="17" spans="2:6">
+      <c r="B13" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/two-sum","两数之和")</f>
         <v>两数之和</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4">
         <v>265</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" ht="17" spans="1:5">
-      <c r="A14" s="4" t="str">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="17" spans="2:6">
+      <c r="B14" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/number-of-islands","岛屿数量")</f>
         <v>岛屿数量</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
         <v>259</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" ht="17" spans="1:5">
-      <c r="A15" s="4" t="str">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="17" spans="2:6">
+      <c r="B15" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/search-in-rotated-sorted-array","搜索旋转排序数组")</f>
         <v>搜索旋转排序数组</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
         <v>259</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" ht="17" spans="1:5">
-      <c r="A16" s="4" t="str">
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="17" spans="2:6">
+      <c r="B16" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/permutations","全排列")</f>
         <v>全排列</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
         <v>244</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" ht="17" spans="1:5">
-      <c r="A17" s="4" t="str">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="17" spans="2:6">
+      <c r="B17" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/merge-sorted-array","合并两个有序数组")</f>
         <v>合并两个有序数组</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
         <v>239</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" ht="17" spans="1:5">
-      <c r="A18" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="17" spans="2:6">
+      <c r="B18" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock","买卖股票的最佳时机")</f>
         <v>买卖股票的最佳时机</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4">
         <v>239</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" ht="17" spans="1:5">
-      <c r="A19" s="4" t="str">
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" ht="17" spans="2:6">
+      <c r="B19" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/valid-parentheses","有效的括号")</f>
         <v>有效的括号</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4">
         <v>234</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" ht="17" spans="1:5">
-      <c r="A20" s="4" t="str">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" ht="17" spans="2:6">
+      <c r="B20" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/binary-tree-zigzag-level-order-traversal","二叉树的锯齿形层次遍历")</f>
         <v>二叉树的锯齿形层次遍历</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4">
         <v>233</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" ht="17" spans="1:5">
-      <c r="A21" s="4" t="str">
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" ht="17" spans="2:6">
+      <c r="B21" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree","二叉树的最近公共祖先")</f>
         <v>二叉树的最近公共祖先</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4">
         <v>229</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="E21" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" ht="17" spans="1:5">
-      <c r="A22" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" ht="17" spans="2:6">
+      <c r="B22" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/linked-list-cycle","环形链表")</f>
         <v>环形链表</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4">
         <v>228</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" ht="17" spans="1:5">
-      <c r="A23" s="4" t="str">
+      <c r="E22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" ht="17" spans="2:6">
+      <c r="B23" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/reverse-linked-list-ii","反转链表 II")</f>
         <v>反转链表 II</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
         <v>221</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" ht="17" spans="1:5">
-      <c r="A24" s="4" t="str">
+      <c r="E23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="17" spans="2:6">
+      <c r="B24" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/merge-k-sorted-lists","合并K个排序链表")</f>
         <v>合并K个排序链表</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4">
         <v>209</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="E24" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" ht="17" spans="1:5">
-      <c r="A25" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" ht="17" spans="2:6">
+      <c r="B25" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/spiral-matrix","螺旋矩阵")</f>
         <v>螺旋矩阵</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="C25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4">
         <v>209</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" ht="17" spans="1:5">
-      <c r="A26" s="4" t="str">
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" ht="17" spans="2:6">
+      <c r="B26" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/longest-increasing-subsequence","最长上升子序列")</f>
         <v>最长上升子序列</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4">
         <v>206</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" ht="17" spans="1:5">
-      <c r="A27" s="4" t="str">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" ht="17" spans="2:6">
+      <c r="B27" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/add-strings","字符串相加")</f>
         <v>字符串相加</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4">
         <v>190</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" ht="17" spans="1:5">
-      <c r="A28" s="4" t="str">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" ht="17" spans="2:6">
+      <c r="B28" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/intersection-of-two-linked-lists","相交链表")</f>
         <v>相交链表</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4">
         <v>184</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" ht="17" spans="1:5">
-      <c r="A29" s="4" t="str">
+      <c r="E28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" ht="17" spans="2:6">
+      <c r="B29" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/reorder-list","重排链表")</f>
         <v>重排链表</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="C29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4">
         <v>180</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" ht="17" spans="1:5">
-      <c r="A30" s="4" t="str">
+      <c r="E29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" ht="17" spans="2:6">
+      <c r="B30" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/merge-intervals","合并区间")</f>
         <v>合并区间</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="C30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4">
         <v>175</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" ht="17" spans="1:5">
-      <c r="A31" s="4" t="str">
+      <c r="E30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" ht="17" spans="2:6">
+      <c r="B31" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/trapping-rain-water","接雨水")</f>
         <v>接雨水</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="4">
         <v>166</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" ht="17" spans="1:5">
-      <c r="A32" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="2:6">
+      <c r="B32" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/linked-list-cycle-ii","环形链表 II")</f>
         <v>环形链表 II</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4">
         <v>159</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" ht="17" spans="1:5">
-      <c r="A33" s="4" t="str">
+      <c r="E32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" ht="17" spans="2:6">
+      <c r="B33" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/edit-distance","编辑距离")</f>
         <v>编辑距离</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4">
         <v>156</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" ht="17" spans="1:5">
-      <c r="A34" s="4" t="str">
+      <c r="E33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="2:6">
+      <c r="B34" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/binary-tree-maximum-path-sum","二叉树中的最大路径和")</f>
         <v>二叉树中的最大路径和</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4">
         <v>154</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E34" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" ht="17" spans="1:5">
-      <c r="A35" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" ht="17" spans="2:6">
+      <c r="B35" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/remove-nth-node-from-end-of-list","删除链表的倒数第N个节点")</f>
         <v>删除链表的倒数第N个节点</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="C35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="4">
         <v>151</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" ht="17" spans="1:5">
-      <c r="A36" s="4" t="str">
+      <c r="E35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" ht="17" spans="2:6">
+      <c r="B36" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/restore-ip-addresses","复原IP地址")</f>
         <v>复原IP地址</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="C36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="4">
         <v>150</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" ht="17" spans="1:5">
-      <c r="A37" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" ht="17" spans="2:6">
+      <c r="B37" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/longest-common-subsequence","最长公共子序列")</f>
         <v>最长公共子序列</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="C37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="4">
         <v>149</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" ht="17" spans="1:5">
-      <c r="A38" s="4" t="str">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" ht="17" spans="2:6">
+      <c r="B38" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/median-of-two-sorted-arrays","寻找两个正序数组的中位数")</f>
         <v>寻找两个正序数组的中位数</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="C38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="4">
         <v>139</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" ht="17" spans="1:5">
-      <c r="A39" s="4" t="str">
+      <c r="E38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" ht="17" spans="2:6">
+      <c r="B39" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/remove-duplicates-from-sorted-list-ii","删除排序链表中的重复元素 II")</f>
         <v>删除排序链表中的重复元素 II</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="4">
+      <c r="C39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4">
         <v>139</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E39" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" ht="17" spans="1:5">
-      <c r="A40" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" ht="17" spans="2:6">
+      <c r="B40" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/binary-tree-inorder-traversal","二叉树的中序遍历")</f>
         <v>二叉树的中序遍历</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="C40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="4">
         <v>134</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" ht="17" spans="1:5">
-      <c r="A41" s="4" t="str">
+      <c r="E40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" ht="17" spans="2:6">
+      <c r="B41" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/binary-tree-right-side-view","二叉树的右视图")</f>
         <v>二叉树的右视图</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="C41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="4">
         <v>133</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" ht="17" spans="1:5">
-      <c r="A42" s="4" t="str">
+      <c r="E41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" ht="17" spans="2:6">
+      <c r="B42" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/binary-search","二分查找")</f>
         <v>二分查找</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="4">
         <v>131</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" ht="17" spans="1:5">
-      <c r="A43" s="4" t="str">
+      <c r="E42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" ht="17" spans="2:6">
+      <c r="B43" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/implement-queue-using-stacks","用栈实现队列")</f>
         <v>用栈实现队列</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="4">
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="4">
         <v>127</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" ht="17" spans="1:5">
-      <c r="A44" s="4" t="str">
+      <c r="E43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" ht="17" spans="2:6">
+      <c r="B44" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/sort-list","排序链表")</f>
         <v>排序链表</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="4">
+      <c r="C44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4">
         <v>126</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E44" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" ht="17" spans="1:5">
-      <c r="A45" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" ht="17" spans="2:6">
+      <c r="B45" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/next-permutation","下一个排列")</f>
         <v>下一个排列</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="C45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="4">
         <v>125</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" ht="17" spans="1:5">
-      <c r="A46" s="4" t="str">
+      <c r="F45" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" ht="17" spans="2:6">
+      <c r="B46" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/generate-parentheses","括号生成")</f>
         <v>括号生成</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="C46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="4">
         <v>124</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E46" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" ht="17" spans="1:5">
-      <c r="A47" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" ht="17" spans="2:6">
+      <c r="B47" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/sqrtx","x 的平方根")</f>
         <v>x 的平方根</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="4">
+      <c r="C47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="4">
         <v>123</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" ht="17" spans="1:5">
-      <c r="A48" s="4" t="str">
+      <c r="E47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" ht="17" spans="2:6">
+      <c r="B48" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/string-to-integer-atoi","字符串转换整数 (atoi)")</f>
         <v>字符串转换整数 (atoi)</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="4">
+      <c r="C48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="4">
         <v>122</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E48" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" ht="17" spans="1:3">
-      <c r="A49" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" ht="17" spans="1:6">
+      <c r="A49">
+        <v>239</v>
+      </c>
+      <c r="B49" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/sliding-window-maximum","滑动窗口最大值")</f>
         <v>滑动窗口最大值</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="4">
+      <c r="C49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="4">
         <v>120</v>
       </c>
-    </row>
-    <row r="50" ht="17" spans="1:3">
-      <c r="A50" s="4" t="str">
+      <c r="E49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" ht="17" spans="1:6">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/add-two-numbers","两数相加")</f>
         <v>两数相加</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="C50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="4">
         <v>119</v>
       </c>
-    </row>
-    <row r="51" ht="17" spans="1:3">
-      <c r="A51" s="4" t="str">
+      <c r="E50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" ht="17" spans="1:6">
+      <c r="A51">
+        <v>70</v>
+      </c>
+      <c r="B51" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/climbing-stairs","爬楼梯")</f>
         <v>爬楼梯</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="4">
+      <c r="C51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="4">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" ht="17" spans="1:3">
-      <c r="A52" s="4" t="str">
+      <c r="E51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" ht="17" spans="1:6">
+      <c r="A52">
+        <v>165</v>
+      </c>
+      <c r="B52" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/compare-version-numbers","比较版本号")</f>
         <v>比较版本号</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="4">
+      <c r="C52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="4">
         <v>117</v>
       </c>
-    </row>
-    <row r="53" ht="17" spans="1:3">
-      <c r="A53" s="4" t="str">
+      <c r="E52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" ht="17" spans="1:6">
+      <c r="A53">
+        <v>32</v>
+      </c>
+      <c r="B53" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/longest-valid-parentheses","最长有效括号")</f>
         <v>最长有效括号</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="4">
+      <c r="C53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="4">
         <v>110</v>
       </c>
-    </row>
-    <row r="54" ht="17" spans="1:3">
-      <c r="A54" s="4" t="str">
+      <c r="E53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" ht="17" spans="1:6">
+      <c r="A54">
+        <v>322</v>
+      </c>
+      <c r="B54" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/coin-change","零钱兑换")</f>
         <v>零钱兑换</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="4">
+      <c r="C54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="4">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" ht="17" spans="1:3">
-      <c r="A55" s="4" t="str">
+      <c r="E54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" ht="17" spans="1:6">
+      <c r="A55">
+        <v>41</v>
+      </c>
+      <c r="B55" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/first-missing-positive","缺失的第一个正数")</f>
         <v>缺失的第一个正数</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="4">
+      <c r="C55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="4">
         <v>104</v>
       </c>
-    </row>
-    <row r="56" ht="17" spans="1:3">
-      <c r="A56" s="4" t="str">
+      <c r="E55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" ht="17" spans="1:6">
+      <c r="A56">
+        <v>140</v>
+      </c>
+      <c r="B56" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/lian-biao-zhong-dao-shu-di-kge-jie-dian-lcof","链表中倒数第k个节点")</f>
         <v>链表中倒数第k个节点</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="4">
+      <c r="C56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="4">
         <v>102</v>
       </c>
-    </row>
-    <row r="57" ht="17" spans="1:3">
-      <c r="A57" s="4" t="str">
+      <c r="E56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" ht="17" spans="1:6">
+      <c r="A57">
+        <v>76</v>
+      </c>
+      <c r="B57" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/minimum-window-substring","最小覆盖子串")</f>
         <v>最小覆盖子串</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="4">
+      <c r="C57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" ht="17" spans="1:3">
-      <c r="A58" s="4" t="str">
+      <c r="E57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" ht="17" spans="2:4">
+      <c r="B58" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal","从前序与中序遍历序列构造二叉树")</f>
         <v>从前序与中序遍历序列构造二叉树</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="4">
+      <c r="C58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="59" ht="17" spans="1:3">
-      <c r="A59" s="4" t="str">
+    <row r="59" ht="17" spans="2:4">
+      <c r="B59" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/multiply-strings","字符串相乘")</f>
         <v>字符串相乘</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="4">
+      <c r="C59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="60" ht="17" spans="1:3">
-      <c r="A60" s="4" t="str">
+    <row r="60" ht="17" spans="2:4">
+      <c r="B60" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/subsets","子集")</f>
         <v>子集</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="4">
+      <c r="C60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="61" ht="17" spans="1:3">
-      <c r="A61" s="4" t="str">
+    <row r="61" ht="17" spans="2:4">
+      <c r="B61" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/reverse-words-in-a-string","翻转字符串里的单词")</f>
         <v>翻转字符串里的单词</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="4">
+      <c r="C61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="62" ht="17" spans="1:3">
-      <c r="A62" s="4" t="str">
+    <row r="62" ht="17" spans="2:4">
+      <c r="B62" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/min-stack","最小栈")</f>
         <v>最小栈</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="4">
+      <c r="C62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="4">
         <v>91</v>
       </c>
     </row>
-    <row r="63" ht="17" spans="1:3">
-      <c r="A63" s="4" t="str">
+    <row r="63" ht="17" spans="2:4">
+      <c r="B63" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/sum-root-to-leaf-numbers","求根到叶子节点数字之和")</f>
         <v>求根到叶子节点数字之和</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="4">
+      <c r="C63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="64" ht="17" spans="1:3">
-      <c r="A64" s="4" t="str">
+    <row r="64" ht="17" spans="2:4">
+      <c r="B64" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/symmetric-tree","对称二叉树")</f>
         <v>对称二叉树</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="4">
+      <c r="C64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="65" ht="17" spans="1:3">
-      <c r="A65" s="4" t="str">
+    <row r="65" ht="17" spans="2:4">
+      <c r="B65" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/maximum-depth-of-binary-tree","二叉树的最大深度")</f>
         <v>二叉树的最大深度</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="4">
+      <c r="C65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="4">
         <v>84</v>
       </c>
     </row>
-    <row r="66" ht="17" spans="1:3">
-      <c r="A66" s="4" t="str">
+    <row r="66" ht="17" spans="2:4">
+      <c r="B66" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/binary-tree-preorder-traversal","二叉树的前序遍历")</f>
         <v>二叉树的前序遍历</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="4">
+      <c r="C66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="4">
         <v>83</v>
       </c>
     </row>
-    <row r="67" ht="17" spans="1:3">
-      <c r="A67" s="4" t="str">
+    <row r="67" ht="17" spans="2:4">
+      <c r="B67" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/balanced-binary-tree","平衡二叉树")</f>
         <v>平衡二叉树</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="4">
+      <c r="C67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="4">
         <v>81</v>
       </c>
     </row>
-    <row r="68" ht="34" spans="1:3">
-      <c r="A68" s="4" t="str">
+    <row r="68" ht="34" spans="2:4">
+      <c r="B68" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/find-first-and-last-position-of-element-in-sorted-array","在排序数组中查找元素的第一个和最后一个位置")</f>
         <v>在排序数组中查找元素的第一个和最后一个位置</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="4">
+      <c r="C68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="69" ht="17" spans="1:3">
-      <c r="A69" s="4" t="str">
+    <row r="69" ht="17" spans="2:4">
+      <c r="B69" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/combination-sum","组合总和")</f>
         <v>组合总和</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="4">
+      <c r="C69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="70" ht="17" spans="1:3">
-      <c r="A70" s="4" t="str">
+    <row r="70" ht="17" spans="2:4">
+      <c r="B70" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/implement-rand10-using-rand7","用 Rand7() 实现 Rand10()")</f>
         <v>用 Rand7() 实现 Rand10()</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="4">
+      <c r="C70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="71" ht="17" spans="1:3">
-      <c r="A71" s="4" t="str">
+    <row r="71" ht="17" spans="2:4">
+      <c r="B71" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/decode-string","字符串解码")</f>
         <v>字符串解码</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="4">
+      <c r="C71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="72" ht="17" spans="1:3">
-      <c r="A72" s="4" t="str">
+    <row r="72" ht="17" spans="2:4">
+      <c r="B72" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/rotate-image","旋转图像")</f>
         <v>旋转图像</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="4">
+      <c r="C72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="73" ht="17" spans="1:3">
-      <c r="A73" s="4" t="str">
+    <row r="73" ht="17" spans="2:4">
+      <c r="B73" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/maximal-square","最大正方形")</f>
         <v>最大正方形</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="4">
+      <c r="C73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="74" ht="17" spans="1:3">
-      <c r="A74" s="4" t="str">
+    <row r="74" ht="17" spans="2:4">
+      <c r="B74" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/validate-binary-search-tree","验证二叉搜索树")</f>
         <v>验证二叉搜索树</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="4">
+      <c r="C74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="75" ht="17" spans="1:3">
-      <c r="A75" s="4" t="str">
+    <row r="75" ht="17" spans="2:4">
+      <c r="B75" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/diameter-of-binary-tree","二叉树的直径")</f>
         <v>二叉树的直径</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="4">
+      <c r="C75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="76" ht="17" spans="1:3">
-      <c r="A76" s="4" t="str">
+    <row r="76" ht="17" spans="2:4">
+      <c r="B76" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/search-a-2d-matrix-ii","搜索二维矩阵 II")</f>
         <v>搜索二维矩阵 II</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="4">
+      <c r="C76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="77" ht="17" spans="1:3">
-      <c r="A77" s="4" t="str">
+    <row r="77" ht="17" spans="2:4">
+      <c r="B77" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/minimum-path-sum","最小路径和")</f>
         <v>最小路径和</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="4">
+      <c r="C77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="78" ht="17" spans="1:3">
-      <c r="A78" s="4" t="str">
+    <row r="78" ht="17" spans="2:4">
+      <c r="B78" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/find-peak-element","寻找峰值")</f>
         <v>寻找峰值</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="4">
+      <c r="C78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="79" ht="17" spans="1:3">
-      <c r="A79" s="4" t="str">
+    <row r="79" ht="17" spans="2:4">
+      <c r="B79" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/path-sum-ii","路径总和 II")</f>
         <v>路径总和 II</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="4">
+      <c r="C79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="80" ht="17" spans="1:3">
-      <c r="A80" s="4" t="str">
+    <row r="80" ht="17" spans="2:4">
+      <c r="B80" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/longest-consecutive-sequence","最长连续序列")</f>
         <v>最长连续序列</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="4">
+      <c r="C80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="81" ht="17" spans="1:3">
-      <c r="A81" s="4" t="str">
+    <row r="81" ht="17" spans="2:4">
+      <c r="B81" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/palindrome-linked-list","回文链表")</f>
         <v>回文链表</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="4">
+      <c r="C81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="82" ht="17" spans="1:3">
-      <c r="A82" s="4" t="str">
+    <row r="82" ht="17" spans="2:4">
+      <c r="B82" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/longest-common-prefix","最长公共前缀")</f>
         <v>最长公共前缀</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="4">
+      <c r="C82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="83" ht="17" spans="1:3">
-      <c r="A83" s="4" t="str">
+    <row r="83" ht="17" spans="2:4">
+      <c r="B83" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii","买卖股票的最佳时机 II")</f>
         <v>买卖股票的最佳时机 II</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="4">
+      <c r="C83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="84" ht="17" spans="1:3">
-      <c r="A84" s="4" t="str">
+    <row r="84" ht="17" spans="2:4">
+      <c r="B84" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/max-area-of-island","岛屿的最大面积")</f>
         <v>岛屿的最大面积</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="4">
+      <c r="C84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="85" ht="17" spans="1:3">
-      <c r="A85" s="4" t="str">
+    <row r="85" ht="17" spans="2:4">
+      <c r="B85" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/maximum-width-of-binary-tree","二叉树最大宽度")</f>
         <v>二叉树最大宽度</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="4">
+      <c r="C85" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="86" ht="17" spans="1:3">
-      <c r="A86" s="4" t="str">
+    <row r="86" ht="17" spans="2:4">
+      <c r="B86" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/maximum-product-subarray","乘积最大子数组")</f>
         <v>乘积最大子数组</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="4">
+      <c r="C86" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="87" ht="17" spans="1:3">
-      <c r="A87" s="4" t="str">
+    <row r="87" ht="17" spans="2:4">
+      <c r="B87" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/path-sum","路径总和")</f>
         <v>路径总和</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="4">
+      <c r="C87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="88" ht="17" spans="1:3">
-      <c r="A88" s="4" t="str">
+    <row r="88" ht="17" spans="2:4">
+      <c r="B88" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/unique-paths","不同路径")</f>
         <v>不同路径</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="4">
+      <c r="C88" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="89" ht="17" spans="1:3">
-      <c r="A89" s="4" t="str">
+    <row r="89" ht="17" spans="2:4">
+      <c r="B89" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/largest-number","最大数")</f>
         <v>最大数</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="4">
+      <c r="C89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="90" ht="17" spans="1:3">
-      <c r="A90" s="4" t="str">
+    <row r="90" ht="17" spans="2:4">
+      <c r="B90" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/majority-element","多数元素")</f>
         <v>多数元素</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="4">
+      <c r="C90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="91" ht="17" spans="1:3">
-      <c r="A91" s="4" t="str">
+    <row r="91" ht="17" spans="2:4">
+      <c r="B91" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/house-robber","打家劫舍")</f>
         <v>打家劫舍</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" s="4">
+      <c r="C91" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="92" ht="17" spans="1:3">
-      <c r="A92" s="4" t="str">
+    <row r="92" ht="17" spans="2:4">
+      <c r="B92" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/remove-duplicates-from-sorted-list","删除排序链表中的重复元素")</f>
         <v>删除排序链表中的重复元素</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="4">
+      <c r="C92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="93" ht="17" spans="1:3">
-      <c r="A93" s="4" t="str">
+    <row r="93" ht="17" spans="2:4">
+      <c r="B93" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/basic-calculator-ii","基本计算器 II")</f>
         <v>基本计算器 II</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="4">
+      <c r="C93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="94" ht="17" spans="1:3">
-      <c r="A94" s="4" t="str">
+    <row r="94" ht="17" spans="2:4">
+      <c r="B94" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/maximum-length-of-repeated-subarray","最长重复子数组")</f>
         <v>最长重复子数组</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="4">
+      <c r="C94" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="95" ht="17" spans="1:3">
-      <c r="A95" s="4" t="str">
+    <row r="95" ht="17" spans="2:4">
+      <c r="B95" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/invert-binary-tree","翻转二叉树")</f>
         <v>翻转二叉树</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="4">
+      <c r="C95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="96" ht="17" spans="1:3">
-      <c r="A96" s="4" t="str">
+    <row r="96" ht="17" spans="2:4">
+      <c r="B96" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/subarray-sum-equals-k","和为K的子数组")</f>
         <v>和为K的子数组</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="4">
+      <c r="C96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="97" ht="17" spans="1:3">
-      <c r="A97" s="4" t="str">
+    <row r="97" ht="17" spans="2:4">
+      <c r="B97" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/minimum-size-subarray-sum","长度最小的子数组")</f>
         <v>长度最小的子数组</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" s="4">
+      <c r="C97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="98" ht="17" spans="1:3">
-      <c r="A98" s="4" t="str">
+    <row r="98" ht="17" spans="2:4">
+      <c r="B98" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/word-break","单词拆分")</f>
         <v>单词拆分</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" s="4">
+      <c r="C98" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="99" ht="17" spans="1:3">
-      <c r="A99" s="4" t="str">
+    <row r="99" ht="17" spans="2:4">
+      <c r="B99" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/swap-nodes-in-pairs","两两交换链表中的节点")</f>
         <v>两两交换链表中的节点</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="4">
+      <c r="C99" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="100" ht="17" spans="1:3">
-      <c r="A100" s="4" t="str">
+    <row r="100" ht="17" spans="2:4">
+      <c r="B100" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/sort-an-array","手撕堆排序")</f>
         <v>手撕堆排序</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="4">
+      <c r="C100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="101" ht="17" spans="1:3">
-      <c r="A101" s="4" t="str">
+    <row r="101" ht="17" spans="2:4">
+      <c r="B101" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree","二叉树的序列化与反序列化")</f>
         <v>二叉树的序列化与反序列化</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" s="4">
+      <c r="C101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="4">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/longest-substring-without-repeating-characters&quot;,&quot;无重复字符的最长子串&quot;)"/>
-    <hyperlink ref="A3" r:id="rId2" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/lru-cache&quot;,&quot;LRU缓存机制&quot;)"/>
-    <hyperlink ref="A4" r:id="rId3" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/reverse-linked-list&quot;,&quot;反转链表&quot;)"/>
-    <hyperlink ref="A5" r:id="rId4" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/kth-largest-element-in-an-array&quot;,&quot;数组中的第K个最大元素&quot;)"/>
-    <hyperlink ref="A6" r:id="rId5" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/reverse-nodes-in-k-group&quot;,&quot;K 个一组翻转链表&quot;)"/>
-    <hyperlink ref="A7" r:id="rId6" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/3sum&quot;,&quot;三数之和&quot;)"/>
-    <hyperlink ref="A8" r:id="rId7" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/maximum-subarray&quot;,&quot;最大子数组和&quot;)"/>
-    <hyperlink ref="A9" r:id="rId8" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/sort-an-array&quot;,&quot;手撕快速排序&quot;)"/>
-    <hyperlink ref="A10" r:id="rId9" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/merge-two-sorted-lists&quot;,&quot;合并两个有序链表&quot;)"/>
-    <hyperlink ref="A11" r:id="rId10" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/longest-palindromic-substring&quot;,&quot;最长回文子串&quot;)"/>
-    <hyperlink ref="A12" r:id="rId11" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/binary-tree-level-order-traversal&quot;,&quot;二叉树的层序遍历&quot;)"/>
-    <hyperlink ref="A13" r:id="rId12" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/two-sum&quot;,&quot;两数之和&quot;)"/>
-    <hyperlink ref="A14" r:id="rId13" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/number-of-islands&quot;,&quot;岛屿数量&quot;)"/>
-    <hyperlink ref="A15" r:id="rId14" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/search-in-rotated-sorted-array&quot;,&quot;搜索旋转排序数组&quot;)"/>
-    <hyperlink ref="A16" r:id="rId15" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/permutations&quot;,&quot;全排列&quot;)"/>
-    <hyperlink ref="A17" r:id="rId16" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/merge-sorted-array&quot;,&quot;合并两个有序数组&quot;)"/>
-    <hyperlink ref="A18" r:id="rId17" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock&quot;,&quot;买卖股票的最佳时机&quot;)"/>
-    <hyperlink ref="A19" r:id="rId18" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/valid-parentheses&quot;,&quot;有效的括号&quot;)"/>
-    <hyperlink ref="A20" r:id="rId19" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/binary-tree-zigzag-level-order-traversal&quot;,&quot;二叉树的锯齿形层次遍历&quot;)"/>
-    <hyperlink ref="A21" r:id="rId20" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree&quot;,&quot;二叉树的最近公共祖先&quot;)"/>
-    <hyperlink ref="A22" r:id="rId21" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/linked-list-cycle&quot;,&quot;环形链表&quot;)"/>
-    <hyperlink ref="A23" r:id="rId22" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/reverse-linked-list-ii&quot;,&quot;反转链表 II&quot;)"/>
-    <hyperlink ref="A24" r:id="rId23" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/merge-k-sorted-lists&quot;,&quot;合并K个排序链表&quot;)"/>
-    <hyperlink ref="A25" r:id="rId24" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/spiral-matrix&quot;,&quot;螺旋矩阵&quot;)"/>
-    <hyperlink ref="A26" r:id="rId25" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/longest-increasing-subsequence&quot;,&quot;最长上升子序列&quot;)"/>
-    <hyperlink ref="A27" r:id="rId26" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/add-strings&quot;,&quot;字符串相加&quot;)"/>
-    <hyperlink ref="A28" r:id="rId27" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/intersection-of-two-linked-lists&quot;,&quot;相交链表&quot;)"/>
-    <hyperlink ref="A29" r:id="rId28" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/reorder-list&quot;,&quot;重排链表&quot;)"/>
-    <hyperlink ref="A30" r:id="rId29" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/merge-intervals&quot;,&quot;合并区间&quot;)"/>
-    <hyperlink ref="A31" r:id="rId30" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/trapping-rain-water&quot;,&quot;接雨水&quot;)"/>
-    <hyperlink ref="A32" r:id="rId31" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/linked-list-cycle-ii&quot;,&quot;环形链表 II&quot;)"/>
-    <hyperlink ref="A33" r:id="rId32" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/edit-distance&quot;,&quot;编辑距离&quot;)"/>
-    <hyperlink ref="A34" r:id="rId33" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/binary-tree-maximum-path-sum&quot;,&quot;二叉树中的最大路径和&quot;)"/>
-    <hyperlink ref="A35" r:id="rId34" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/remove-nth-node-from-end-of-list&quot;,&quot;删除链表的倒数第N个节点&quot;)"/>
-    <hyperlink ref="A36" r:id="rId35" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/restore-ip-addresses&quot;,&quot;复原IP地址&quot;)"/>
-    <hyperlink ref="A37" r:id="rId36" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/longest-common-subsequence&quot;,&quot;最长公共子序列&quot;)"/>
-    <hyperlink ref="A38" r:id="rId37" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/median-of-two-sorted-arrays&quot;,&quot;寻找两个正序数组的中位数&quot;)"/>
-    <hyperlink ref="A39" r:id="rId38" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/remove-duplicates-from-sorted-list-ii&quot;,&quot;删除排序链表中的重复元素 II&quot;)"/>
-    <hyperlink ref="A40" r:id="rId39" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/binary-tree-inorder-traversal&quot;,&quot;二叉树的中序遍历&quot;)"/>
-    <hyperlink ref="A41" r:id="rId40" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/binary-tree-right-side-view&quot;,&quot;二叉树的右视图&quot;)"/>
-    <hyperlink ref="A42" r:id="rId41" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/binary-search&quot;,&quot;二分查找&quot;)"/>
-    <hyperlink ref="A43" r:id="rId42" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/implement-queue-using-stacks&quot;,&quot;用栈实现队列&quot;)"/>
-    <hyperlink ref="A44" r:id="rId43" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/sort-list&quot;,&quot;排序链表&quot;)"/>
-    <hyperlink ref="A45" r:id="rId44" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/next-permutation&quot;,&quot;下一个排列&quot;)"/>
-    <hyperlink ref="A46" r:id="rId45" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/generate-parentheses&quot;,&quot;括号生成&quot;)"/>
-    <hyperlink ref="A47" r:id="rId46" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/sqrtx&quot;,&quot;x 的平方根&quot;)"/>
-    <hyperlink ref="A48" r:id="rId47" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/string-to-integer-atoi&quot;,&quot;字符串转换整数 (atoi)&quot;)"/>
-    <hyperlink ref="A49" r:id="rId48" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/sliding-window-maximum&quot;,&quot;滑动窗口最大值&quot;)"/>
-    <hyperlink ref="A50" r:id="rId49" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/add-two-numbers&quot;,&quot;两数相加&quot;)"/>
-    <hyperlink ref="A51" r:id="rId50" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/climbing-stairs&quot;,&quot;爬楼梯&quot;)"/>
-    <hyperlink ref="A52" r:id="rId51" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/compare-version-numbers&quot;,&quot;比较版本号&quot;)"/>
-    <hyperlink ref="A53" r:id="rId52" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/longest-valid-parentheses&quot;,&quot;最长有效括号&quot;)"/>
-    <hyperlink ref="A54" r:id="rId53" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/coin-change&quot;,&quot;零钱兑换&quot;)"/>
-    <hyperlink ref="A55" r:id="rId54" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/first-missing-positive&quot;,&quot;缺失的第一个正数&quot;)"/>
-    <hyperlink ref="A56" r:id="rId55" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/lian-biao-zhong-dao-shu-di-kge-jie-dian-lcof&quot;,&quot;链表中倒数第k个节点&quot;)"/>
-    <hyperlink ref="A57" r:id="rId56" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/minimum-window-substring&quot;,&quot;最小覆盖子串&quot;)"/>
-    <hyperlink ref="A58" r:id="rId57" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal&quot;,&quot;从前序与中序遍历序列构造二叉树&quot;)"/>
-    <hyperlink ref="A59" r:id="rId58" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/multiply-strings&quot;,&quot;字符串相乘&quot;)"/>
-    <hyperlink ref="A60" r:id="rId59" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/subsets&quot;,&quot;子集&quot;)"/>
-    <hyperlink ref="A61" r:id="rId60" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/reverse-words-in-a-string&quot;,&quot;翻转字符串里的单词&quot;)"/>
-    <hyperlink ref="A62" r:id="rId61" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/min-stack&quot;,&quot;最小栈&quot;)"/>
-    <hyperlink ref="A63" r:id="rId62" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/sum-root-to-leaf-numbers&quot;,&quot;求根到叶子节点数字之和&quot;)"/>
-    <hyperlink ref="A64" r:id="rId63" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/symmetric-tree&quot;,&quot;对称二叉树&quot;)"/>
-    <hyperlink ref="A65" r:id="rId64" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/maximum-depth-of-binary-tree&quot;,&quot;二叉树的最大深度&quot;)"/>
-    <hyperlink ref="A66" r:id="rId65" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/binary-tree-preorder-traversal&quot;,&quot;二叉树的前序遍历&quot;)"/>
-    <hyperlink ref="A67" r:id="rId66" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/balanced-binary-tree&quot;,&quot;平衡二叉树&quot;)"/>
-    <hyperlink ref="A68" r:id="rId67" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/find-first-and-last-position-of-element-in-sorted-array&quot;,&quot;在排序数组中查找元素的第一个和最后一个位置&quot;)"/>
-    <hyperlink ref="A69" r:id="rId68" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/combination-sum&quot;,&quot;组合总和&quot;)"/>
-    <hyperlink ref="A70" r:id="rId69" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/implement-rand10-using-rand7&quot;,&quot;用 Rand7() 实现 Rand10()&quot;)"/>
-    <hyperlink ref="A71" r:id="rId70" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/decode-string&quot;,&quot;字符串解码&quot;)"/>
-    <hyperlink ref="A72" r:id="rId71" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/rotate-image&quot;,&quot;旋转图像&quot;)"/>
-    <hyperlink ref="A73" r:id="rId72" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/maximal-square&quot;,&quot;最大正方形&quot;)"/>
-    <hyperlink ref="A74" r:id="rId73" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/validate-binary-search-tree&quot;,&quot;验证二叉搜索树&quot;)"/>
-    <hyperlink ref="A75" r:id="rId74" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/diameter-of-binary-tree&quot;,&quot;二叉树的直径&quot;)"/>
-    <hyperlink ref="A76" r:id="rId75" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/search-a-2d-matrix-ii&quot;,&quot;搜索二维矩阵 II&quot;)"/>
-    <hyperlink ref="A77" r:id="rId76" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/minimum-path-sum&quot;,&quot;最小路径和&quot;)"/>
-    <hyperlink ref="A78" r:id="rId77" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/find-peak-element&quot;,&quot;寻找峰值&quot;)"/>
-    <hyperlink ref="A79" r:id="rId78" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/path-sum-ii&quot;,&quot;路径总和 II&quot;)"/>
-    <hyperlink ref="A80" r:id="rId79" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/longest-consecutive-sequence&quot;,&quot;最长连续序列&quot;)"/>
-    <hyperlink ref="A81" r:id="rId80" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/palindrome-linked-list&quot;,&quot;回文链表&quot;)"/>
-    <hyperlink ref="A82" r:id="rId81" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/longest-common-prefix&quot;,&quot;最长公共前缀&quot;)"/>
-    <hyperlink ref="A83" r:id="rId82" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii&quot;,&quot;买卖股票的最佳时机 II&quot;)"/>
-    <hyperlink ref="A84" r:id="rId83" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/max-area-of-island&quot;,&quot;岛屿的最大面积&quot;)"/>
-    <hyperlink ref="A85" r:id="rId84" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/maximum-width-of-binary-tree&quot;,&quot;二叉树最大宽度&quot;)"/>
-    <hyperlink ref="A86" r:id="rId85" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/maximum-product-subarray&quot;,&quot;乘积最大子数组&quot;)"/>
-    <hyperlink ref="A87" r:id="rId86" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/path-sum&quot;,&quot;路径总和&quot;)"/>
-    <hyperlink ref="A88" r:id="rId87" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/unique-paths&quot;,&quot;不同路径&quot;)"/>
-    <hyperlink ref="A89" r:id="rId88" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/largest-number&quot;,&quot;最大数&quot;)"/>
-    <hyperlink ref="A90" r:id="rId89" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/majority-element&quot;,&quot;多数元素&quot;)"/>
-    <hyperlink ref="A91" r:id="rId90" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/house-robber&quot;,&quot;打家劫舍&quot;)"/>
-    <hyperlink ref="A92" r:id="rId91" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/remove-duplicates-from-sorted-list&quot;,&quot;删除排序链表中的重复元素&quot;)"/>
-    <hyperlink ref="A93" r:id="rId92" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/basic-calculator-ii&quot;,&quot;基本计算器 II&quot;)"/>
-    <hyperlink ref="A94" r:id="rId93" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/maximum-length-of-repeated-subarray&quot;,&quot;最长重复子数组&quot;)"/>
-    <hyperlink ref="A95" r:id="rId94" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/invert-binary-tree&quot;,&quot;翻转二叉树&quot;)"/>
-    <hyperlink ref="A96" r:id="rId95" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/subarray-sum-equals-k&quot;,&quot;和为K的子数组&quot;)"/>
-    <hyperlink ref="A97" r:id="rId96" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/minimum-size-subarray-sum&quot;,&quot;长度最小的子数组&quot;)"/>
-    <hyperlink ref="A98" r:id="rId97" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/word-break&quot;,&quot;单词拆分&quot;)"/>
-    <hyperlink ref="A99" r:id="rId98" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/swap-nodes-in-pairs&quot;,&quot;两两交换链表中的节点&quot;)"/>
-    <hyperlink ref="A100" r:id="rId8" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/sort-an-array&quot;,&quot;手撕堆排序&quot;)"/>
-    <hyperlink ref="A101" r:id="rId99" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree&quot;,&quot;二叉树的序列化与反序列化&quot;)"/>
+    <hyperlink ref="B2" r:id="rId1" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/longest-substring-without-repeating-characters&quot;,&quot;无重复字符的最长子串&quot;)"/>
+    <hyperlink ref="B3" r:id="rId2" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/lru-cache&quot;,&quot;LRU缓存机制&quot;)"/>
+    <hyperlink ref="B4" r:id="rId3" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/reverse-linked-list&quot;,&quot;反转链表&quot;)"/>
+    <hyperlink ref="B5" r:id="rId4" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/kth-largest-element-in-an-array&quot;,&quot;数组中的第K个最大元素&quot;)"/>
+    <hyperlink ref="B6" r:id="rId5" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/reverse-nodes-in-k-group&quot;,&quot;K 个一组翻转链表&quot;)"/>
+    <hyperlink ref="B7" r:id="rId6" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/3sum&quot;,&quot;三数之和&quot;)"/>
+    <hyperlink ref="B8" r:id="rId7" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/maximum-subarray&quot;,&quot;最大子数组和&quot;)"/>
+    <hyperlink ref="B9" r:id="rId8" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/sort-an-array&quot;,&quot;手撕快速排序&quot;)"/>
+    <hyperlink ref="B10" r:id="rId9" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/merge-two-sorted-lists&quot;,&quot;合并两个有序链表&quot;)"/>
+    <hyperlink ref="B11" r:id="rId10" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/longest-palindromic-substring&quot;,&quot;最长回文子串&quot;)"/>
+    <hyperlink ref="B12" r:id="rId11" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/binary-tree-level-order-traversal&quot;,&quot;二叉树的层序遍历&quot;)"/>
+    <hyperlink ref="B13" r:id="rId12" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/two-sum&quot;,&quot;两数之和&quot;)"/>
+    <hyperlink ref="B14" r:id="rId13" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/number-of-islands&quot;,&quot;岛屿数量&quot;)"/>
+    <hyperlink ref="B15" r:id="rId14" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/search-in-rotated-sorted-array&quot;,&quot;搜索旋转排序数组&quot;)"/>
+    <hyperlink ref="B16" r:id="rId15" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/permutations&quot;,&quot;全排列&quot;)"/>
+    <hyperlink ref="B17" r:id="rId16" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/merge-sorted-array&quot;,&quot;合并两个有序数组&quot;)"/>
+    <hyperlink ref="B18" r:id="rId17" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock&quot;,&quot;买卖股票的最佳时机&quot;)"/>
+    <hyperlink ref="B19" r:id="rId18" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/valid-parentheses&quot;,&quot;有效的括号&quot;)"/>
+    <hyperlink ref="B20" r:id="rId19" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/binary-tree-zigzag-level-order-traversal&quot;,&quot;二叉树的锯齿形层次遍历&quot;)"/>
+    <hyperlink ref="B21" r:id="rId20" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree&quot;,&quot;二叉树的最近公共祖先&quot;)"/>
+    <hyperlink ref="B22" r:id="rId21" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/linked-list-cycle&quot;,&quot;环形链表&quot;)"/>
+    <hyperlink ref="B23" r:id="rId22" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/reverse-linked-list-ii&quot;,&quot;反转链表 II&quot;)"/>
+    <hyperlink ref="B24" r:id="rId23" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/merge-k-sorted-lists&quot;,&quot;合并K个排序链表&quot;)"/>
+    <hyperlink ref="B25" r:id="rId24" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/spiral-matrix&quot;,&quot;螺旋矩阵&quot;)"/>
+    <hyperlink ref="B26" r:id="rId25" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/longest-increasing-subsequence&quot;,&quot;最长上升子序列&quot;)"/>
+    <hyperlink ref="B27" r:id="rId26" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/add-strings&quot;,&quot;字符串相加&quot;)"/>
+    <hyperlink ref="B28" r:id="rId27" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/intersection-of-two-linked-lists&quot;,&quot;相交链表&quot;)"/>
+    <hyperlink ref="B29" r:id="rId28" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/reorder-list&quot;,&quot;重排链表&quot;)"/>
+    <hyperlink ref="B30" r:id="rId29" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/merge-intervals&quot;,&quot;合并区间&quot;)"/>
+    <hyperlink ref="B31" r:id="rId30" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/trapping-rain-water&quot;,&quot;接雨水&quot;)"/>
+    <hyperlink ref="B32" r:id="rId31" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/linked-list-cycle-ii&quot;,&quot;环形链表 II&quot;)"/>
+    <hyperlink ref="B33" r:id="rId32" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/edit-distance&quot;,&quot;编辑距离&quot;)"/>
+    <hyperlink ref="B34" r:id="rId33" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/binary-tree-maximum-path-sum&quot;,&quot;二叉树中的最大路径和&quot;)"/>
+    <hyperlink ref="B35" r:id="rId34" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/remove-nth-node-from-end-of-list&quot;,&quot;删除链表的倒数第N个节点&quot;)"/>
+    <hyperlink ref="B36" r:id="rId35" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/restore-ip-addresses&quot;,&quot;复原IP地址&quot;)"/>
+    <hyperlink ref="B37" r:id="rId36" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/longest-common-subsequence&quot;,&quot;最长公共子序列&quot;)"/>
+    <hyperlink ref="B38" r:id="rId37" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/median-of-two-sorted-arrays&quot;,&quot;寻找两个正序数组的中位数&quot;)"/>
+    <hyperlink ref="B39" r:id="rId38" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/remove-duplicates-from-sorted-list-ii&quot;,&quot;删除排序链表中的重复元素 II&quot;)"/>
+    <hyperlink ref="B40" r:id="rId39" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/binary-tree-inorder-traversal&quot;,&quot;二叉树的中序遍历&quot;)"/>
+    <hyperlink ref="B41" r:id="rId40" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/binary-tree-right-side-view&quot;,&quot;二叉树的右视图&quot;)"/>
+    <hyperlink ref="B42" r:id="rId41" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/binary-search&quot;,&quot;二分查找&quot;)"/>
+    <hyperlink ref="B43" r:id="rId42" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/implement-queue-using-stacks&quot;,&quot;用栈实现队列&quot;)"/>
+    <hyperlink ref="B44" r:id="rId43" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/sort-list&quot;,&quot;排序链表&quot;)"/>
+    <hyperlink ref="B45" r:id="rId44" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/next-permutation&quot;,&quot;下一个排列&quot;)"/>
+    <hyperlink ref="B46" r:id="rId45" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/generate-parentheses&quot;,&quot;括号生成&quot;)"/>
+    <hyperlink ref="B47" r:id="rId46" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/sqrtx&quot;,&quot;x 的平方根&quot;)"/>
+    <hyperlink ref="B48" r:id="rId47" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/string-to-integer-atoi&quot;,&quot;字符串转换整数 (atoi)&quot;)"/>
+    <hyperlink ref="B49" r:id="rId48" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/sliding-window-maximum&quot;,&quot;滑动窗口最大值&quot;)"/>
+    <hyperlink ref="B50" r:id="rId49" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/add-two-numbers&quot;,&quot;两数相加&quot;)"/>
+    <hyperlink ref="B51" r:id="rId50" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/climbing-stairs&quot;,&quot;爬楼梯&quot;)"/>
+    <hyperlink ref="B52" r:id="rId51" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/compare-version-numbers&quot;,&quot;比较版本号&quot;)"/>
+    <hyperlink ref="B53" r:id="rId52" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/longest-valid-parentheses&quot;,&quot;最长有效括号&quot;)"/>
+    <hyperlink ref="B54" r:id="rId53" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/coin-change&quot;,&quot;零钱兑换&quot;)"/>
+    <hyperlink ref="B55" r:id="rId54" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/first-missing-positive&quot;,&quot;缺失的第一个正数&quot;)"/>
+    <hyperlink ref="B56" r:id="rId55" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/lian-biao-zhong-dao-shu-di-kge-jie-dian-lcof&quot;,&quot;链表中倒数第k个节点&quot;)"/>
+    <hyperlink ref="B57" r:id="rId56" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/minimum-window-substring&quot;,&quot;最小覆盖子串&quot;)"/>
+    <hyperlink ref="B58" r:id="rId57" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal&quot;,&quot;从前序与中序遍历序列构造二叉树&quot;)"/>
+    <hyperlink ref="B59" r:id="rId58" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/multiply-strings&quot;,&quot;字符串相乘&quot;)"/>
+    <hyperlink ref="B60" r:id="rId59" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/subsets&quot;,&quot;子集&quot;)"/>
+    <hyperlink ref="B61" r:id="rId60" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/reverse-words-in-a-string&quot;,&quot;翻转字符串里的单词&quot;)"/>
+    <hyperlink ref="B62" r:id="rId61" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/min-stack&quot;,&quot;最小栈&quot;)"/>
+    <hyperlink ref="B63" r:id="rId62" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/sum-root-to-leaf-numbers&quot;,&quot;求根到叶子节点数字之和&quot;)"/>
+    <hyperlink ref="B64" r:id="rId63" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/symmetric-tree&quot;,&quot;对称二叉树&quot;)"/>
+    <hyperlink ref="B65" r:id="rId64" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/maximum-depth-of-binary-tree&quot;,&quot;二叉树的最大深度&quot;)"/>
+    <hyperlink ref="B66" r:id="rId65" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/binary-tree-preorder-traversal&quot;,&quot;二叉树的前序遍历&quot;)"/>
+    <hyperlink ref="B67" r:id="rId66" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/balanced-binary-tree&quot;,&quot;平衡二叉树&quot;)"/>
+    <hyperlink ref="B68" r:id="rId67" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/find-first-and-last-position-of-element-in-sorted-array&quot;,&quot;在排序数组中查找元素的第一个和最后一个位置&quot;)"/>
+    <hyperlink ref="B69" r:id="rId68" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/combination-sum&quot;,&quot;组合总和&quot;)"/>
+    <hyperlink ref="B70" r:id="rId69" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/implement-rand10-using-rand7&quot;,&quot;用 Rand7() 实现 Rand10()&quot;)"/>
+    <hyperlink ref="B71" r:id="rId70" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/decode-string&quot;,&quot;字符串解码&quot;)"/>
+    <hyperlink ref="B72" r:id="rId71" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/rotate-image&quot;,&quot;旋转图像&quot;)"/>
+    <hyperlink ref="B73" r:id="rId72" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/maximal-square&quot;,&quot;最大正方形&quot;)"/>
+    <hyperlink ref="B74" r:id="rId73" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/validate-binary-search-tree&quot;,&quot;验证二叉搜索树&quot;)"/>
+    <hyperlink ref="B75" r:id="rId74" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/diameter-of-binary-tree&quot;,&quot;二叉树的直径&quot;)"/>
+    <hyperlink ref="B76" r:id="rId75" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/search-a-2d-matrix-ii&quot;,&quot;搜索二维矩阵 II&quot;)"/>
+    <hyperlink ref="B77" r:id="rId76" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/minimum-path-sum&quot;,&quot;最小路径和&quot;)"/>
+    <hyperlink ref="B78" r:id="rId77" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/find-peak-element&quot;,&quot;寻找峰值&quot;)"/>
+    <hyperlink ref="B79" r:id="rId78" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/path-sum-ii&quot;,&quot;路径总和 II&quot;)"/>
+    <hyperlink ref="B80" r:id="rId79" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/longest-consecutive-sequence&quot;,&quot;最长连续序列&quot;)"/>
+    <hyperlink ref="B81" r:id="rId80" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/palindrome-linked-list&quot;,&quot;回文链表&quot;)"/>
+    <hyperlink ref="B82" r:id="rId81" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/longest-common-prefix&quot;,&quot;最长公共前缀&quot;)"/>
+    <hyperlink ref="B83" r:id="rId82" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii&quot;,&quot;买卖股票的最佳时机 II&quot;)"/>
+    <hyperlink ref="B84" r:id="rId83" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/max-area-of-island&quot;,&quot;岛屿的最大面积&quot;)"/>
+    <hyperlink ref="B85" r:id="rId84" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/maximum-width-of-binary-tree&quot;,&quot;二叉树最大宽度&quot;)"/>
+    <hyperlink ref="B86" r:id="rId85" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/maximum-product-subarray&quot;,&quot;乘积最大子数组&quot;)"/>
+    <hyperlink ref="B87" r:id="rId86" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/path-sum&quot;,&quot;路径总和&quot;)"/>
+    <hyperlink ref="B88" r:id="rId87" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/unique-paths&quot;,&quot;不同路径&quot;)"/>
+    <hyperlink ref="B89" r:id="rId88" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/largest-number&quot;,&quot;最大数&quot;)"/>
+    <hyperlink ref="B90" r:id="rId89" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/majority-element&quot;,&quot;多数元素&quot;)"/>
+    <hyperlink ref="B91" r:id="rId90" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/house-robber&quot;,&quot;打家劫舍&quot;)"/>
+    <hyperlink ref="B92" r:id="rId91" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/remove-duplicates-from-sorted-list&quot;,&quot;删除排序链表中的重复元素&quot;)"/>
+    <hyperlink ref="B93" r:id="rId92" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/basic-calculator-ii&quot;,&quot;基本计算器 II&quot;)"/>
+    <hyperlink ref="B94" r:id="rId93" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/maximum-length-of-repeated-subarray&quot;,&quot;最长重复子数组&quot;)"/>
+    <hyperlink ref="B95" r:id="rId94" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/invert-binary-tree&quot;,&quot;翻转二叉树&quot;)"/>
+    <hyperlink ref="B96" r:id="rId95" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/subarray-sum-equals-k&quot;,&quot;和为K的子数组&quot;)"/>
+    <hyperlink ref="B97" r:id="rId96" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/minimum-size-subarray-sum&quot;,&quot;长度最小的子数组&quot;)"/>
+    <hyperlink ref="B98" r:id="rId97" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/word-break&quot;,&quot;单词拆分&quot;)"/>
+    <hyperlink ref="B99" r:id="rId98" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/swap-nodes-in-pairs&quot;,&quot;两两交换链表中的节点&quot;)"/>
+    <hyperlink ref="B100" r:id="rId8" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/sort-an-array&quot;,&quot;手撕堆排序&quot;)"/>
+    <hyperlink ref="B101" r:id="rId99" display="=HYPERLINK(&quot;https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree&quot;,&quot;二叉树的序列化与反序列化&quot;)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/leetcode刷题/leetcode高频.xlsx
+++ b/leetcode刷题/leetcode高频.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14560"/>
+    <workbookView windowWidth="29100" windowHeight="13400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="70">
   <si>
     <t>题号</t>
   </si>
@@ -1352,6 +1352,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>双指针遍历，</t>
     </r>
     <r>
@@ -1381,6 +1386,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>关键点，</t>
     </r>
     <r>
@@ -1450,6 +1460,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">dp[i] </t>
     </r>
     <r>
@@ -1498,6 +1513,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>数字</t>
     </r>
     <r>
@@ -1551,6 +1571,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>快慢指针，快指针先走</t>
     </r>
     <r>
@@ -1564,6 +1589,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>哈希表记录</t>
     </r>
     <r>
@@ -1605,6 +1635,157 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> + validNum</t>
+    </r>
+  </si>
+  <si>
+    <t>哈希表记录中序元素对应下标，计算左右子树长度，递归连接，注意区间参数的计算</t>
+  </si>
+  <si>
+    <r>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> res[m+n]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存储每一位相乘之和，最后再一起进位和去除前导零</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>回溯，直接收集结果，注意递归参数是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> i+1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> start+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>去除多余</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翻转整个字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翻转各个单词</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最小栈的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑是当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最小栈为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">|| val &lt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最小栈首</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
 </sst>
@@ -2839,8 +3020,8 @@
   <sheetPr/>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B50" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -3904,7 +4085,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" ht="17" spans="2:4">
+    <row r="58" ht="17" spans="1:6">
+      <c r="A58">
+        <v>105</v>
+      </c>
       <c r="B58" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal","从前序与中序遍历序列构造二叉树")</f>
         <v>从前序与中序遍历序列构造二叉树</v>
@@ -3915,8 +4099,17 @@
       <c r="D58" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" ht="17" spans="2:4">
+      <c r="E58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" ht="17" spans="1:6">
+      <c r="A59">
+        <v>43</v>
+      </c>
       <c r="B59" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/multiply-strings","字符串相乘")</f>
         <v>字符串相乘</v>
@@ -3927,8 +4120,17 @@
       <c r="D59" s="4">
         <v>96</v>
       </c>
-    </row>
-    <row r="60" ht="17" spans="2:4">
+      <c r="E59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" ht="17" spans="1:6">
+      <c r="A60">
+        <v>78</v>
+      </c>
       <c r="B60" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/subsets","子集")</f>
         <v>子集</v>
@@ -3939,8 +4141,17 @@
       <c r="D60" s="4">
         <v>96</v>
       </c>
-    </row>
-    <row r="61" ht="17" spans="2:4">
+      <c r="E60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" ht="17" spans="1:6">
+      <c r="A61">
+        <v>151</v>
+      </c>
       <c r="B61" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/reverse-words-in-a-string","翻转字符串里的单词")</f>
         <v>翻转字符串里的单词</v>
@@ -3951,8 +4162,17 @@
       <c r="D61" s="4">
         <v>94</v>
       </c>
-    </row>
-    <row r="62" ht="17" spans="2:4">
+      <c r="E61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" ht="17" spans="1:6">
+      <c r="A62">
+        <v>155</v>
+      </c>
       <c r="B62" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/min-stack","最小栈")</f>
         <v>最小栈</v>
@@ -3962,6 +4182,12 @@
       </c>
       <c r="D62" s="4">
         <v>91</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="63" ht="17" spans="2:4">

--- a/leetcode刷题/leetcode高频.xlsx
+++ b/leetcode刷题/leetcode高频.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="13400"/>
+    <workbookView windowWidth="24660" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="103">
   <si>
     <t>题号</t>
   </si>
@@ -1642,6 +1642,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>用</t>
     </r>
     <r>
@@ -1663,6 +1668,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>回溯，直接收集结果，注意递归参数是</t>
     </r>
     <r>
@@ -1692,6 +1702,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>去除多余</t>
     </r>
     <r>
@@ -1729,6 +1744,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>最小栈的</t>
     </r>
     <r>
@@ -1786,6 +1806,1062 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>二叉树的所有路径，加入traverse进去直接加入path， 然后递归</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>判断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和值的情况，递归左右子树</t>
+    </r>
+  </si>
+  <si>
+    <t>return Math.max(leftDepth, rightDepth) + 1;</t>
+  </si>
+  <si>
+    <t>递归和遍历</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> int getDepth() + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全局变量，只要有左右子树深度差超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二分查找边界，注意最终要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> if(left &lt;= nums.length - 1 &amp;&amp; nums[left] == target)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排序，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回溯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">num = (rand7() - 1) * 7 + rand7(); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以等概率映射到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1~49 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1~40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>映射到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1~10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否则拒绝掉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个重复次数栈，一个已解码字符串栈，一个当前数字，一个当前字符串。遇到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，就入栈。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>遇到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就出栈，并更新当前字符串</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">matrix[j][n -1 -i] = temp[i][j]; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记住公式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dp[ij]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> [i,j] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为右下角的正方形的边长最大值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二叉搜索树的中序遍历是有序的，记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，比较当前即可</t>
+    </r>
+  </si>
+  <si>
+    <t>用深度来算， 注意区分【二叉树的最大路径和】</t>
+  </si>
+  <si>
+    <t>逐行二分</t>
+  </si>
+  <si>
+    <t>动态规划</t>
+  </si>
+  <si>
+    <t>用二分查找，防止越界所以用开区间，往上坡的方向二分</t>
+  </si>
+  <si>
+    <t>回溯</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>做，找到连续子序列的开头，然后遍历找长度</t>
+    </r>
+  </si>
+  <si>
+    <t>找到中点，翻转，双指针比较</t>
+  </si>
+  <si>
+    <t>遍历</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动态规划，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dp[i][2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dfs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图的遍历</t>
+    </r>
+  </si>
+  <si>
+    <t>层序遍历，用哈希表存储节点对应的【标号】</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>维护一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数组，一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数组（因为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nums</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有负数），递推</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自定义比较器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(a,b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a+b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> b+a, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降序，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否则升序</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双指针计数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双指针，不用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dummy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>slow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额外指向0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>preSign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录，遇到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出栈顶并与当前数字计算，再放入栈。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终结果就是栈里数字之和。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要特判最后一个元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>哈希表记录前缀和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出现次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>循环判断表中有无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> preSum - k, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有则累加其出现次数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滑动窗口，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收缩时取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>min</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完全背包的排列问题，先背包再物品，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dp[j]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示长度为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的字符串是否可以拆分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>node 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑改变指针，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条件是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>node1 != null &amp;&amp; node1.next != null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，递归两段数组，然后新建一个临时数组，存入结果【从小到大双指针遍历两段数组】，最终将临时数组的结果存回原数组</t>
     </r>
   </si>
 </sst>
@@ -3020,13 +4096,13 @@
   <sheetPr/>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B50" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D87" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="42.5673076923077" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.2692307692308" style="1" customWidth="1"/>
     <col min="3" max="4" width="11.6538461538462" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.60576923076923" style="2"/>
     <col min="6" max="6" width="107.682692307692" style="2" customWidth="1"/>
@@ -4190,7 +5266,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" ht="17" spans="2:4">
+    <row r="63" ht="17" spans="1:6">
+      <c r="A63">
+        <v>129</v>
+      </c>
       <c r="B63" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/sum-root-to-leaf-numbers","求根到叶子节点数字之和")</f>
         <v>求根到叶子节点数字之和</v>
@@ -4201,8 +5280,17 @@
       <c r="D63" s="4">
         <v>89</v>
       </c>
-    </row>
-    <row r="64" ht="17" spans="2:4">
+      <c r="E63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" ht="17" spans="1:6">
+      <c r="A64">
+        <v>101</v>
+      </c>
       <c r="B64" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/symmetric-tree","对称二叉树")</f>
         <v>对称二叉树</v>
@@ -4213,8 +5301,17 @@
       <c r="D64" s="4">
         <v>86</v>
       </c>
-    </row>
-    <row r="65" ht="17" spans="2:4">
+      <c r="E64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" ht="17" spans="1:6">
+      <c r="A65">
+        <v>104</v>
+      </c>
       <c r="B65" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/maximum-depth-of-binary-tree","二叉树的最大深度")</f>
         <v>二叉树的最大深度</v>
@@ -4225,8 +5322,17 @@
       <c r="D65" s="4">
         <v>84</v>
       </c>
-    </row>
-    <row r="66" ht="17" spans="2:4">
+      <c r="E65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" ht="17" spans="1:6">
+      <c r="A66">
+        <v>144</v>
+      </c>
       <c r="B66" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/binary-tree-preorder-traversal","二叉树的前序遍历")</f>
         <v>二叉树的前序遍历</v>
@@ -4237,8 +5343,17 @@
       <c r="D66" s="4">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" ht="17" spans="2:4">
+      <c r="E66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" ht="17" spans="1:6">
+      <c r="A67">
+        <v>110</v>
+      </c>
       <c r="B67" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/balanced-binary-tree","平衡二叉树")</f>
         <v>平衡二叉树</v>
@@ -4249,8 +5364,17 @@
       <c r="D67" s="4">
         <v>81</v>
       </c>
-    </row>
-    <row r="68" ht="34" spans="2:4">
+      <c r="E67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" ht="17" spans="1:6">
+      <c r="A68">
+        <v>34</v>
+      </c>
       <c r="B68" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/find-first-and-last-position-of-element-in-sorted-array","在排序数组中查找元素的第一个和最后一个位置")</f>
         <v>在排序数组中查找元素的第一个和最后一个位置</v>
@@ -4261,8 +5385,17 @@
       <c r="D68" s="4">
         <v>80</v>
       </c>
-    </row>
-    <row r="69" ht="17" spans="2:4">
+      <c r="E68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" ht="17" spans="1:6">
+      <c r="A69">
+        <v>39</v>
+      </c>
       <c r="B69" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/combination-sum","组合总和")</f>
         <v>组合总和</v>
@@ -4273,8 +5406,17 @@
       <c r="D69" s="4">
         <v>79</v>
       </c>
-    </row>
-    <row r="70" ht="17" spans="2:4">
+      <c r="E69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" ht="17" spans="1:6">
+      <c r="A70">
+        <v>470</v>
+      </c>
       <c r="B70" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/implement-rand10-using-rand7","用 Rand7() 实现 Rand10()")</f>
         <v>用 Rand7() 实现 Rand10()</v>
@@ -4285,8 +5427,17 @@
       <c r="D70" s="4">
         <v>78</v>
       </c>
-    </row>
-    <row r="71" ht="17" spans="2:4">
+      <c r="E70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" ht="17" spans="1:6">
+      <c r="A71">
+        <v>394</v>
+      </c>
       <c r="B71" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/decode-string","字符串解码")</f>
         <v>字符串解码</v>
@@ -4297,8 +5448,17 @@
       <c r="D71" s="4">
         <v>78</v>
       </c>
-    </row>
-    <row r="72" ht="17" spans="2:4">
+      <c r="E71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" ht="17" spans="1:6">
+      <c r="A72">
+        <v>48</v>
+      </c>
       <c r="B72" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/rotate-image","旋转图像")</f>
         <v>旋转图像</v>
@@ -4309,8 +5469,17 @@
       <c r="D72" s="4">
         <v>78</v>
       </c>
-    </row>
-    <row r="73" ht="17" spans="2:4">
+      <c r="E72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" ht="17" spans="1:6">
+      <c r="A73">
+        <v>221</v>
+      </c>
       <c r="B73" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/maximal-square","最大正方形")</f>
         <v>最大正方形</v>
@@ -4321,8 +5490,17 @@
       <c r="D73" s="4">
         <v>77</v>
       </c>
-    </row>
-    <row r="74" ht="17" spans="2:4">
+      <c r="E73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" ht="17" spans="1:6">
+      <c r="A74">
+        <v>98</v>
+      </c>
       <c r="B74" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/validate-binary-search-tree","验证二叉搜索树")</f>
         <v>验证二叉搜索树</v>
@@ -4333,8 +5511,17 @@
       <c r="D74" s="4">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" ht="17" spans="2:4">
+      <c r="E74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" ht="17" spans="1:6">
+      <c r="A75">
+        <v>543</v>
+      </c>
       <c r="B75" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/diameter-of-binary-tree","二叉树的直径")</f>
         <v>二叉树的直径</v>
@@ -4345,8 +5532,17 @@
       <c r="D75" s="4">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" ht="17" spans="2:4">
+      <c r="E75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" ht="17" spans="1:6">
+      <c r="A76">
+        <v>240</v>
+      </c>
       <c r="B76" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/search-a-2d-matrix-ii","搜索二维矩阵 II")</f>
         <v>搜索二维矩阵 II</v>
@@ -4357,8 +5553,17 @@
       <c r="D76" s="4">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" ht="17" spans="2:4">
+      <c r="E76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" ht="17" spans="1:6">
+      <c r="A77">
+        <v>64</v>
+      </c>
       <c r="B77" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/minimum-path-sum","最小路径和")</f>
         <v>最小路径和</v>
@@ -4369,8 +5574,17 @@
       <c r="D77" s="4">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" ht="17" spans="2:4">
+      <c r="E77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" ht="17" spans="1:6">
+      <c r="A78">
+        <v>162</v>
+      </c>
       <c r="B78" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/find-peak-element","寻找峰值")</f>
         <v>寻找峰值</v>
@@ -4381,8 +5595,17 @@
       <c r="D78" s="4">
         <v>74</v>
       </c>
-    </row>
-    <row r="79" ht="17" spans="2:4">
+      <c r="E78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" ht="17" spans="1:6">
+      <c r="A79">
+        <v>113</v>
+      </c>
       <c r="B79" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/path-sum-ii","路径总和 II")</f>
         <v>路径总和 II</v>
@@ -4393,8 +5616,17 @@
       <c r="D79" s="4">
         <v>71</v>
       </c>
-    </row>
-    <row r="80" ht="17" spans="2:4">
+      <c r="E79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" ht="17" spans="1:6">
+      <c r="A80">
+        <v>128</v>
+      </c>
       <c r="B80" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/longest-consecutive-sequence","最长连续序列")</f>
         <v>最长连续序列</v>
@@ -4405,8 +5637,17 @@
       <c r="D80" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="81" ht="17" spans="2:4">
+      <c r="E80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" ht="17" spans="1:6">
+      <c r="A81">
+        <v>234</v>
+      </c>
       <c r="B81" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/palindrome-linked-list","回文链表")</f>
         <v>回文链表</v>
@@ -4417,8 +5658,17 @@
       <c r="D81" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="82" ht="17" spans="2:4">
+      <c r="E81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" ht="17" spans="1:6">
+      <c r="A82">
+        <v>14</v>
+      </c>
       <c r="B82" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/longest-common-prefix","最长公共前缀")</f>
         <v>最长公共前缀</v>
@@ -4429,8 +5679,17 @@
       <c r="D82" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="83" ht="17" spans="2:4">
+      <c r="E82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" ht="17" spans="1:6">
+      <c r="A83">
+        <v>122</v>
+      </c>
       <c r="B83" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii","买卖股票的最佳时机 II")</f>
         <v>买卖股票的最佳时机 II</v>
@@ -4441,8 +5700,17 @@
       <c r="D83" s="4">
         <v>69</v>
       </c>
-    </row>
-    <row r="84" ht="17" spans="2:4">
+      <c r="E83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" ht="17" spans="1:6">
+      <c r="A84">
+        <v>695</v>
+      </c>
       <c r="B84" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/max-area-of-island","岛屿的最大面积")</f>
         <v>岛屿的最大面积</v>
@@ -4453,8 +5721,17 @@
       <c r="D84" s="4">
         <v>68</v>
       </c>
-    </row>
-    <row r="85" ht="17" spans="2:4">
+      <c r="E84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" ht="17" spans="1:6">
+      <c r="A85">
+        <v>662</v>
+      </c>
       <c r="B85" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/maximum-width-of-binary-tree","二叉树最大宽度")</f>
         <v>二叉树最大宽度</v>
@@ -4465,8 +5742,17 @@
       <c r="D85" s="4">
         <v>68</v>
       </c>
-    </row>
-    <row r="86" ht="17" spans="2:4">
+      <c r="E85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" ht="17" spans="1:6">
+      <c r="A86">
+        <v>152</v>
+      </c>
       <c r="B86" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/maximum-product-subarray","乘积最大子数组")</f>
         <v>乘积最大子数组</v>
@@ -4477,8 +5763,17 @@
       <c r="D86" s="4">
         <v>67</v>
       </c>
-    </row>
-    <row r="87" ht="17" spans="2:4">
+      <c r="E86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" ht="17" spans="1:6">
+      <c r="A87">
+        <v>112</v>
+      </c>
       <c r="B87" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/path-sum","路径总和")</f>
         <v>路径总和</v>
@@ -4489,8 +5784,17 @@
       <c r="D87" s="4">
         <v>67</v>
       </c>
-    </row>
-    <row r="88" ht="17" spans="2:4">
+      <c r="E87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" ht="17" spans="1:6">
+      <c r="A88">
+        <v>62</v>
+      </c>
       <c r="B88" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/unique-paths","不同路径")</f>
         <v>不同路径</v>
@@ -4501,8 +5805,17 @@
       <c r="D88" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="89" ht="17" spans="2:4">
+      <c r="E88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" ht="17" spans="1:6">
+      <c r="A89">
+        <v>179</v>
+      </c>
       <c r="B89" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/largest-number","最大数")</f>
         <v>最大数</v>
@@ -4513,8 +5826,17 @@
       <c r="D89" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="90" ht="17" spans="2:4">
+      <c r="E89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" ht="17" spans="1:6">
+      <c r="A90">
+        <v>169</v>
+      </c>
       <c r="B90" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/majority-element","多数元素")</f>
         <v>多数元素</v>
@@ -4525,8 +5847,17 @@
       <c r="D90" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="91" ht="17" spans="2:4">
+      <c r="E90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" ht="17" spans="1:6">
+      <c r="A91">
+        <v>198</v>
+      </c>
       <c r="B91" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/house-robber","打家劫舍")</f>
         <v>打家劫舍</v>
@@ -4537,8 +5868,17 @@
       <c r="D91" s="4">
         <v>62</v>
       </c>
-    </row>
-    <row r="92" ht="17" spans="2:4">
+      <c r="E91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" ht="17" spans="1:6">
+      <c r="A92">
+        <v>83</v>
+      </c>
       <c r="B92" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/remove-duplicates-from-sorted-list","删除排序链表中的重复元素")</f>
         <v>删除排序链表中的重复元素</v>
@@ -4549,8 +5889,17 @@
       <c r="D92" s="4">
         <v>62</v>
       </c>
-    </row>
-    <row r="93" ht="17" spans="2:4">
+      <c r="E92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" ht="17" spans="1:6">
+      <c r="A93">
+        <v>227</v>
+      </c>
       <c r="B93" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/basic-calculator-ii","基本计算器 II")</f>
         <v>基本计算器 II</v>
@@ -4561,8 +5910,17 @@
       <c r="D93" s="4">
         <v>62</v>
       </c>
-    </row>
-    <row r="94" ht="17" spans="2:4">
+      <c r="E93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" ht="17" spans="1:6">
+      <c r="A94">
+        <v>718</v>
+      </c>
       <c r="B94" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/maximum-length-of-repeated-subarray","最长重复子数组")</f>
         <v>最长重复子数组</v>
@@ -4573,8 +5931,17 @@
       <c r="D94" s="4">
         <v>62</v>
       </c>
-    </row>
-    <row r="95" ht="17" spans="2:4">
+      <c r="E94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" ht="17" spans="1:6">
+      <c r="A95">
+        <v>226</v>
+      </c>
       <c r="B95" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/invert-binary-tree","翻转二叉树")</f>
         <v>翻转二叉树</v>
@@ -4585,8 +5952,17 @@
       <c r="D95" s="4">
         <v>61</v>
       </c>
-    </row>
-    <row r="96" ht="17" spans="2:4">
+      <c r="E95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" ht="17" spans="1:6">
+      <c r="A96">
+        <v>560</v>
+      </c>
       <c r="B96" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/subarray-sum-equals-k","和为K的子数组")</f>
         <v>和为K的子数组</v>
@@ -4597,8 +5973,17 @@
       <c r="D96" s="4">
         <v>61</v>
       </c>
-    </row>
-    <row r="97" ht="17" spans="2:4">
+      <c r="E96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" ht="17" spans="1:6">
+      <c r="A97">
+        <v>209</v>
+      </c>
       <c r="B97" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/minimum-size-subarray-sum","长度最小的子数组")</f>
         <v>长度最小的子数组</v>
@@ -4609,8 +5994,17 @@
       <c r="D97" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="98" ht="17" spans="2:4">
+      <c r="E97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" ht="17" spans="1:6">
+      <c r="A98">
+        <v>139</v>
+      </c>
       <c r="B98" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/word-break","单词拆分")</f>
         <v>单词拆分</v>
@@ -4621,8 +6015,17 @@
       <c r="D98" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="99" ht="17" spans="2:4">
+      <c r="E98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" ht="17" spans="1:6">
+      <c r="A99">
+        <v>24</v>
+      </c>
       <c r="B99" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/swap-nodes-in-pairs","两两交换链表中的节点")</f>
         <v>两两交换链表中的节点</v>
@@ -4633,8 +6036,17 @@
       <c r="D99" s="4">
         <v>58</v>
       </c>
-    </row>
-    <row r="100" ht="17" spans="2:4">
+      <c r="E99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" ht="17" spans="1:6">
+      <c r="A100">
+        <v>912</v>
+      </c>
       <c r="B100" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/sort-an-array","手撕堆排序")</f>
         <v>手撕堆排序</v>
@@ -4645,8 +6057,17 @@
       <c r="D100" s="4">
         <v>57</v>
       </c>
-    </row>
-    <row r="101" ht="17" spans="2:4">
+      <c r="E100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" ht="17" spans="1:6">
+      <c r="A101">
+        <v>297</v>
+      </c>
       <c r="B101" s="4" t="str">
         <f>HYPERLINK("https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree","二叉树的序列化与反序列化")</f>
         <v>二叉树的序列化与反序列化</v>
@@ -4656,6 +6077,12 @@
       </c>
       <c r="D101" s="4">
         <v>55</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
